--- a/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
+++ b/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\jade\jpss-jade-ccm\src\main\java\ccm\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\justice\dems\jpss-jade-ccm\mapping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E482B-E338-4518-AE26-B22EE0E8F4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20B9FD-8D14-45D4-85F8-66CF3CB60892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28710" yWindow="750" windowWidth="19620" windowHeight="19485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Change Log" sheetId="3" r:id="rId1"/>
@@ -955,9 +955,6 @@
     <t>Vulnerable Child YN</t>
   </si>
   <si>
-    <t>CROWN_DECISION_AGENCY_IDENTIFIER</t>
-  </si>
-  <si>
     <t>Proposed Crown</t>
   </si>
   <si>
@@ -968,9 +965,6 @@
   </si>
   <si>
     <t>Proposed Crown Office Identifier</t>
-  </si>
-  <si>
-    <t>CROWN_DECISION_AGENCY_NAME</t>
   </si>
   <si>
     <t>Kelowna Crown Counsel</t>
@@ -3390,6 +3384,12 @@
   </si>
   <si>
     <t>JADE-CCM 5.3.1</t>
+  </si>
+  <si>
+    <t>CRN_DECISION_AGENCY_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>CRN_DECISION_AGENCY_NAME</t>
   </si>
 </sst>
 </file>
@@ -3824,7 +3824,7 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4117,9 +4117,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6501,10 +6498,10 @@
   <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,11 +6548,11 @@
       <c r="E1" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="100" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="100" t="s">
-        <v>641</v>
+      <c r="F1" s="99" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>639</v>
       </c>
       <c r="H1" s="87" t="s">
         <v>93</v>
@@ -6626,13 +6623,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>109</v>
@@ -6679,7 +6676,7 @@
       <c r="V2" s="7"/>
       <c r="W2" s="9"/>
       <c r="X2" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
@@ -6696,13 +6693,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>122</v>
@@ -6753,7 +6750,7 @@
         <v>125</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -6861,10 +6858,10 @@
         <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>138</v>
@@ -6935,10 +6932,10 @@
         <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>106</v>
@@ -7009,10 +7006,10 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>152</v>
@@ -7081,10 +7078,10 @@
         <v>105</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>157</v>
@@ -7156,10 +7153,10 @@
         <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>164</v>
@@ -7231,10 +7228,10 @@
         <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>170</v>
@@ -7249,7 +7246,7 @@
         <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>168</v>
@@ -7306,10 +7303,10 @@
         <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>176</v>
@@ -7381,10 +7378,10 @@
         <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>185</v>
@@ -7456,10 +7453,10 @@
         <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>192</v>
@@ -7528,13 +7525,13 @@
         <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>106</v>
@@ -7543,22 +7540,22 @@
         <v>117</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>113</v>
@@ -7596,13 +7593,13 @@
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>106</v>
@@ -7611,22 +7608,22 @@
         <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>644</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -7667,37 +7664,37 @@
         <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>113</v>
@@ -7706,16 +7703,16 @@
         <v>112</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>125</v>
@@ -7739,55 +7736,55 @@
         <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>125</v>
@@ -7811,37 +7808,37 @@
         <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="N19" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -7850,16 +7847,16 @@
         <v>112</v>
       </c>
       <c r="S19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="V19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>125</v>
@@ -7871,7 +7868,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>103</v>
@@ -7883,61 +7880,61 @@
         <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>166</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -7957,37 +7954,37 @@
         <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="N21" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>113</v>
@@ -7996,22 +7993,22 @@
         <v>112</v>
       </c>
       <c r="S21" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="X21" s="66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -8019,52 +8016,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K22" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="N22" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>106</v>
@@ -8081,7 +8078,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -8089,49 +8086,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="N23" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>113</v>
@@ -8140,22 +8137,22 @@
         <v>112</v>
       </c>
       <c r="S23" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W23" s="7" t="s">
         <v>125</v>
       </c>
       <c r="X23" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -8166,46 +8163,46 @@
         <v>102</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="N24" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>113</v>
@@ -8214,22 +8211,22 @@
         <v>112</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="X24" s="66" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8237,73 +8234,73 @@
         <v>24</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="P25" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="W25" s="7" t="s">
         <v>125</v>
       </c>
       <c r="X25" s="98" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -8314,46 +8311,46 @@
         <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="N26" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>135</v>
@@ -8371,13 +8368,13 @@
         <v>106</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="W26" s="7" t="s">
         <v>125</v>
       </c>
       <c r="X26" s="98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -8385,25 +8382,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>106</v>
@@ -8412,42 +8409,42 @@
         <v>117</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="N27" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -8458,46 +8455,46 @@
         <v>102</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="N28" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>135</v>
@@ -8515,13 +8512,13 @@
         <v>106</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="W28" s="7" t="s">
         <v>166</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8532,10 +8529,10 @@
         <v>102</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>142</v>
@@ -8543,22 +8540,22 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>106</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="92" t="s">
         <v>297</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M29" s="92" t="s">
-        <v>299</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>111</v>
@@ -8579,7 +8576,7 @@
         <v>111</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>113</v>
@@ -8596,36 +8593,36 @@
         <v>102</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="N30" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>106</v>
@@ -8649,7 +8646,7 @@
         <v>106</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>125</v>
@@ -8664,10 +8661,10 @@
         <v>102</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>115</v>
@@ -8675,31 +8672,31 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K31" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="N31" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>113</v>
@@ -8717,13 +8714,13 @@
         <v>106</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W31" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X31" s="66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -8734,10 +8731,10 @@
         <v>102</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>142</v>
@@ -8745,31 +8742,31 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I32" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="N32" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>113</v>
@@ -8785,11 +8782,11 @@
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:25" s="9" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -8797,45 +8794,45 @@
         <v>32</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="78"/>
       <c r="H33" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="L33" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="M33" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="N33" s="78" t="s">
         <v>327</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="K33" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="L33" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="M33" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="N33" s="78" t="s">
-        <v>329</v>
       </c>
       <c r="O33" s="78" t="s">
         <v>112</v>
       </c>
       <c r="P33" s="78" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q33" s="78" t="s">
         <v>113</v>
@@ -8844,22 +8841,22 @@
         <v>112</v>
       </c>
       <c r="S33" s="78" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T33" s="78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U33" s="78" t="s">
         <v>113</v>
       </c>
       <c r="V33" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="W33" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="X33" s="66" t="s">
         <v>331</v>
-      </c>
-      <c r="W33" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="X33" s="66" t="s">
-        <v>333</v>
       </c>
       <c r="Y33" s="15"/>
     </row>
@@ -8871,42 +8868,42 @@
         <v>102</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K34" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="N34" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>113</v>
@@ -8924,13 +8921,13 @@
         <v>106</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W34" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X34" s="66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -8941,42 +8938,42 @@
         <v>102</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I35" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K35" s="8" t="s">
+      <c r="M35" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="N35" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>113</v>
@@ -8985,22 +8982,22 @@
         <v>112</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V35" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W35" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X35" s="75" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -9011,42 +9008,42 @@
         <v>102</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I36" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="N36" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>113</v>
@@ -9055,16 +9052,16 @@
         <v>112</v>
       </c>
       <c r="S36" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="T36" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="U36" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W36" s="17" t="s">
         <v>125</v>
@@ -9079,42 +9076,42 @@
         <v>102</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I37" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="L37" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K37" s="8" t="s">
+      <c r="M37" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="N37" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>113</v>
@@ -9123,16 +9120,16 @@
         <v>112</v>
       </c>
       <c r="S37" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="T37" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="U37" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V37" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W37" s="18" t="s">
         <v>125</v>
@@ -9147,42 +9144,42 @@
         <v>102</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I38" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K38" s="8" t="s">
+      <c r="M38" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="N38" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>372</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>135</v>
@@ -9191,16 +9188,16 @@
         <v>112</v>
       </c>
       <c r="S38" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="T38" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="U38" s="7" t="s">
         <v>135</v>
       </c>
       <c r="V38" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W38" s="18" t="s">
         <v>125</v>
@@ -9212,13 +9209,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>142</v>
@@ -9229,52 +9226,52 @@
         <v>106</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="L39" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K39" s="8" t="s">
+      <c r="M39" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="N39" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="O39" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="P39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V39" s="25" t="s">
         <v>383</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V39" s="25" t="s">
-        <v>385</v>
       </c>
       <c r="W39" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X39" s="66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
@@ -9282,13 +9279,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>142</v>
@@ -9299,22 +9296,22 @@
         <v>106</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K40" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="N40" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>391</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>112</v>
@@ -9338,7 +9335,7 @@
         <v>106</v>
       </c>
       <c r="V40" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="W40" s="17" t="s">
         <v>125</v>
@@ -9353,10 +9350,10 @@
         <v>102</v>
       </c>
       <c r="C41" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>142</v>
@@ -9364,49 +9361,49 @@
       <c r="F41" s="78"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I41" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="K41" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="L41" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="M41" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="L41" s="78" t="s">
+      <c r="N41" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="M41" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="N41" s="81" t="s">
+      <c r="O41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="R41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="S41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="T41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="U41" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="V41" s="76" t="s">
         <v>398</v>
-      </c>
-      <c r="O41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="P41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q41" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="R41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="S41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="T41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="U41" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="V41" s="76" t="s">
-        <v>400</v>
       </c>
       <c r="W41" s="20"/>
       <c r="X41" s="7"/>
@@ -9419,10 +9416,10 @@
         <v>102</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>142</v>
@@ -9430,23 +9427,23 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>106</v>
@@ -9470,13 +9467,13 @@
         <v>106</v>
       </c>
       <c r="V42" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W42" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -9487,10 +9484,10 @@
         <v>102</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>142</v>
@@ -9498,23 +9495,23 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J43" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>106</v>
@@ -9538,13 +9535,13 @@
         <v>106</v>
       </c>
       <c r="V43" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W43" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -9555,10 +9552,10 @@
         <v>102</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>142</v>
@@ -9566,23 +9563,23 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J44" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>106</v>
@@ -9606,13 +9603,13 @@
         <v>106</v>
       </c>
       <c r="V44" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W44" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -9623,10 +9620,10 @@
         <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>142</v>
@@ -9634,31 +9631,31 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J45" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K45" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="N45" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>416</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>113</v>
@@ -9676,13 +9673,13 @@
         <v>106</v>
       </c>
       <c r="V45" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W45" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -9693,10 +9690,10 @@
         <v>102</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>142</v>
@@ -9704,29 +9701,29 @@
       <c r="F46" s="78"/>
       <c r="G46" s="78"/>
       <c r="H46" s="78" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J46" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K46" s="79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L46" s="78" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M46" s="78"/>
       <c r="N46" s="79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O46" s="78" t="s">
         <v>112</v>
       </c>
       <c r="P46" s="79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q46" s="78" t="s">
         <v>113</v>
@@ -9744,7 +9741,7 @@
         <v>106</v>
       </c>
       <c r="V46" s="90" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="W46" s="18" t="s">
         <v>125</v>
@@ -9759,10 +9756,10 @@
         <v>102</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>142</v>
@@ -9770,23 +9767,23 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="78" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J47" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>106</v>
@@ -9810,13 +9807,13 @@
         <v>106</v>
       </c>
       <c r="V47" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W47" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9827,10 +9824,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>142</v>
@@ -9838,53 +9835,53 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="78" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J48" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V48" s="25" t="s">
         <v>429</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="U48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V48" s="25" t="s">
-        <v>431</v>
       </c>
       <c r="W48" s="18" t="s">
         <v>125</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9895,10 +9892,10 @@
         <v>102</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>142</v>
@@ -9906,32 +9903,32 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>106</v>
@@ -9944,7 +9941,7 @@
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W49" s="17" t="s">
         <v>125</v>
@@ -9959,10 +9956,10 @@
         <v>102</v>
       </c>
       <c r="C50" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E50" s="78" t="s">
         <v>115</v>
@@ -9970,27 +9967,27 @@
       <c r="F50" s="78"/>
       <c r="G50" s="78"/>
       <c r="H50" s="78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I50" s="80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J50" s="80"/>
       <c r="K50" s="79" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L50" s="78"/>
       <c r="M50" s="78" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N50" s="81" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O50" s="78" t="s">
         <v>112</v>
       </c>
       <c r="P50" s="81" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q50" s="78" t="s">
         <v>113</v>
@@ -10008,7 +10005,7 @@
         <v>106</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W50" s="17" t="s">
         <v>125</v>
@@ -10023,38 +10020,38 @@
         <v>102</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P51" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>135</v>
@@ -10072,7 +10069,7 @@
         <v>106</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W51" s="21" t="s">
         <v>166</v>
@@ -10087,10 +10084,10 @@
         <v>102</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>142</v>
@@ -10098,27 +10095,27 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>113</v>
@@ -10136,13 +10133,13 @@
         <v>106</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W52" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10153,10 +10150,10 @@
         <v>102</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>142</v>
@@ -10164,27 +10161,27 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>113</v>
@@ -10202,13 +10199,13 @@
         <v>106</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W53" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X53" s="66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -10219,10 +10216,10 @@
         <v>102</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>142</v>
@@ -10230,34 +10227,34 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R54" s="7" t="s">
         <v>106</v>
@@ -10272,13 +10269,13 @@
         <v>106</v>
       </c>
       <c r="V54" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W54" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X54" s="67" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -10289,10 +10286,10 @@
         <v>102</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>142</v>
@@ -10300,31 +10297,31 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>109</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>113</v>
@@ -10342,13 +10339,13 @@
         <v>106</v>
       </c>
       <c r="V55" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W55" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X55" s="67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -10359,10 +10356,10 @@
         <v>102</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>142</v>
@@ -10370,31 +10367,31 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>113</v>
@@ -10412,13 +10409,13 @@
         <v>106</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W56" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X56" s="67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
@@ -10429,10 +10426,10 @@
         <v>102</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>142</v>
@@ -10440,22 +10437,22 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K57" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="N57" s="16" t="s">
         <v>182</v>
@@ -10482,13 +10479,13 @@
         <v>106</v>
       </c>
       <c r="V57" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W57" s="17" t="s">
         <v>125</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -10499,10 +10496,10 @@
         <v>102</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>142</v>
@@ -10510,10 +10507,10 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>106</v>
@@ -10531,10 +10528,10 @@
         <v>106</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>113</v>
@@ -10546,7 +10543,7 @@
         <v>106</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>113</v>
@@ -10556,7 +10553,7 @@
         <v>125</v>
       </c>
       <c r="X58" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -10567,10 +10564,10 @@
         <v>102</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>115</v>
@@ -10578,31 +10575,31 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P59" s="16" t="s">
         <v>483</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>485</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>113</v>
@@ -10611,10 +10608,10 @@
         <v>112</v>
       </c>
       <c r="S59" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>113</v>
@@ -10642,13 +10639,13 @@
         <v>105</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>150</v>
@@ -10669,10 +10666,10 @@
         <v>106</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>113</v>
@@ -10681,10 +10678,10 @@
         <v>112</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="U60" s="7" t="s">
         <v>113</v>
@@ -10712,10 +10709,10 @@
         <v>105</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>161</v>
@@ -10739,10 +10736,10 @@
         <v>106</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>113</v>
@@ -10751,7 +10748,7 @@
         <v>112</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="T61" s="7" t="s">
         <v>161</v>
@@ -10782,13 +10779,13 @@
         <v>105</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>106</v>
@@ -10809,10 +10806,10 @@
         <v>106</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>113</v>
@@ -10821,10 +10818,10 @@
         <v>112</v>
       </c>
       <c r="S62" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="T62" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>113</v>
@@ -10841,36 +10838,36 @@
         <v>102</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F63" s="92"/>
       <c r="G63" s="92"/>
       <c r="H63" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="M63" s="92" t="s">
+        <v>497</v>
+      </c>
+      <c r="N63" s="16" t="s">
         <v>498</v>
-      </c>
-      <c r="L63" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="M63" s="92" t="s">
-        <v>499</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>500</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>106</v>
@@ -10894,7 +10891,7 @@
         <v>106</v>
       </c>
       <c r="V63" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>125</v>
@@ -10909,21 +10906,21 @@
         <v>102</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
@@ -10936,13 +10933,13 @@
         <v>106</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>113</v>
@@ -10951,16 +10948,16 @@
         <v>112</v>
       </c>
       <c r="S64" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="T64" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="T64" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="U64" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V64" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="W64" s="9" t="s">
         <v>125</v>
@@ -10975,19 +10972,19 @@
         <v>102</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>109</v>
@@ -10996,7 +10993,7 @@
         <v>106</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>108</v>
@@ -11040,58 +11037,58 @@
         <v>65</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>106</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="M66" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="N66" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="T66" s="7" t="s">
         <v>106</v>
@@ -11108,64 +11105,64 @@
         <v>66</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I67" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="K67" s="7" t="s">
+      <c r="M67" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>519</v>
-      </c>
       <c r="N67" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V67" s="7"/>
       <c r="W67" s="9"/>
@@ -11176,64 +11173,64 @@
         <v>67</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I68" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="J68" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="K68" s="7" t="s">
+      <c r="M68" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="N68" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>113</v>
       </c>
       <c r="R68" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="T68" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U68" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V68" s="7"/>
       <c r="W68" s="9"/>
@@ -11244,49 +11241,49 @@
         <v>68</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I69" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="K69" s="7" t="s">
+      <c r="M69" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="N69" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>113</v>
@@ -11295,10 +11292,10 @@
         <v>112</v>
       </c>
       <c r="S69" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="T69" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="T69" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="U69" s="66" t="s">
         <v>113</v>
@@ -11312,7 +11309,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="78" t="s">
         <v>103</v>
@@ -11324,57 +11321,57 @@
         <v>115</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I70" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="L70" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="O70" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="P70" s="78" t="s">
         <v>535</v>
       </c>
-      <c r="J70" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="K70" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="L70" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="M70" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="N70" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="O70" s="78" t="s">
-        <v>536</v>
-      </c>
-      <c r="P70" s="78" t="s">
-        <v>537</v>
-      </c>
       <c r="Q70" s="78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R70" s="78" t="s">
         <v>112</v>
       </c>
       <c r="S70" s="78" t="s">
+        <v>535</v>
+      </c>
+      <c r="T70" s="78" t="s">
         <v>537</v>
       </c>
-      <c r="T70" s="78" t="s">
-        <v>539</v>
-      </c>
       <c r="U70" s="78" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="V70" s="78"/>
       <c r="W70" s="80"/>
       <c r="X70" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -11385,25 +11382,25 @@
         <v>102</v>
       </c>
       <c r="C71" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D71" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E71" s="72" t="s">
         <v>142</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I71" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J71" s="72" t="s">
         <v>106</v>
@@ -11421,10 +11418,10 @@
         <v>106</v>
       </c>
       <c r="O71" s="72" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P71" s="72" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q71" s="72" t="s">
         <v>113</v>
@@ -11450,28 +11447,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E72" s="91" t="s">
         <v>142</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H72" s="91" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I72" s="78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J72" s="91" t="s">
         <v>106</v>
@@ -11489,10 +11486,10 @@
         <v>106</v>
       </c>
       <c r="O72" s="91" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P72" s="79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q72" s="91" t="s">
         <v>135</v>
@@ -11501,20 +11498,20 @@
         <v>112</v>
       </c>
       <c r="S72" s="79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T72" s="91" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="U72" s="91" t="s">
         <v>135</v>
       </c>
       <c r="V72" s="72" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W72" s="93"/>
       <c r="X72" s="94" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -11522,28 +11519,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D73" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E73" s="72" t="s">
         <v>115</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H73" s="72" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J73" s="72" t="s">
         <v>106</v>
@@ -11561,10 +11558,10 @@
         <v>106</v>
       </c>
       <c r="O73" s="72" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q73" s="72" t="s">
         <v>135</v>
@@ -11573,10 +11570,10 @@
         <v>112</v>
       </c>
       <c r="S73" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T73" s="72" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U73" s="72" t="s">
         <v>135</v>
@@ -11590,28 +11587,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D74" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E74" s="72" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H74" s="91" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I74" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J74" s="72" t="s">
         <v>106</v>
@@ -11629,10 +11626,10 @@
         <v>106</v>
       </c>
       <c r="O74" s="91" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P74" s="72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q74" s="91" t="s">
         <v>113</v>
@@ -11644,7 +11641,7 @@
         <v>106</v>
       </c>
       <c r="T74" s="91" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U74" s="72" t="s">
         <v>113</v>
@@ -11661,7 +11658,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75" s="72" t="s">
         <v>103</v>
@@ -11673,28 +11670,28 @@
         <v>142</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I75" s="72" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J75" s="72" t="s">
         <v>117</v>
       </c>
       <c r="K75" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L75" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M75" s="74" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N75" s="78" t="s">
         <v>182</v>
@@ -11721,7 +11718,7 @@
         <v>106</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W75" s="18" t="s">
         <v>125</v>
@@ -11736,13 +11733,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E76" s="91" t="s">
         <v>142</v>
@@ -11750,31 +11747,31 @@
       <c r="F76" s="91"/>
       <c r="G76" s="91"/>
       <c r="H76" s="91" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I76" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J76" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K76" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L76" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M76" s="91" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N76" s="91" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O76" s="91" t="s">
         <v>112</v>
       </c>
       <c r="P76" s="91" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q76" s="91" t="s">
         <v>113</v>
@@ -11783,16 +11780,16 @@
         <v>112</v>
       </c>
       <c r="S76" s="91" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="T76" s="91" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="U76" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V76" s="91" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W76" s="93"/>
       <c r="X76" s="91"/>
@@ -11808,18 +11805,18 @@
         <v>102</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F77" s="91"/>
       <c r="G77" s="91"/>
       <c r="H77" s="91" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I77" s="91" t="s">
         <v>106</v>
@@ -11840,10 +11837,10 @@
         <v>106</v>
       </c>
       <c r="O77" s="91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P77" s="91" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q77" s="91" t="s">
         <v>113</v>
@@ -11852,10 +11849,10 @@
         <v>112</v>
       </c>
       <c r="S77" s="91" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T77" s="91" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="U77" s="91" t="s">
         <v>113</v>
@@ -11875,18 +11872,18 @@
         <v>102</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F78" s="91"/>
       <c r="G78" s="91"/>
       <c r="H78" s="91" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I78" s="91" t="s">
         <v>106</v>
@@ -11907,10 +11904,10 @@
         <v>106</v>
       </c>
       <c r="O78" s="91" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P78" s="91" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q78" s="91" t="s">
         <v>113</v>
@@ -11919,10 +11916,10 @@
         <v>112</v>
       </c>
       <c r="S78" s="91" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T78" s="91" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="U78" s="91" t="s">
         <v>113</v>
@@ -11939,44 +11936,44 @@
         <v>78</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79" s="72" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D79" s="72" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E79" s="72" t="s">
         <v>142</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I79" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J79" s="78" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K79" s="78" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L79" s="78"/>
       <c r="M79" s="78" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N79" s="78" t="s">
         <v>182</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>184</v>
@@ -12008,13 +12005,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D80" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E80" s="78" t="s">
         <v>142</v>
@@ -12022,26 +12019,26 @@
       <c r="F80" s="78"/>
       <c r="G80" s="78"/>
       <c r="H80" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I80" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J80" s="78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K80" s="78" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L80" s="78"/>
       <c r="M80" s="78" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N80" s="78" t="s">
         <v>182</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>184</v>
@@ -12073,13 +12070,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C81" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D81" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E81" s="91" t="s">
         <v>142</v>
@@ -12093,7 +12090,7 @@
         <v>188</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>189</v>
@@ -12140,13 +12137,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C82" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D82" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E82" s="91" t="s">
         <v>142</v>
@@ -12160,7 +12157,7 @@
         <v>179</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>180</v>
@@ -12207,13 +12204,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D83" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E83" s="91" t="s">
         <v>142</v>
@@ -12221,22 +12218,22 @@
       <c r="F83" s="78"/>
       <c r="G83" s="78"/>
       <c r="H83" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I83" s="72" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J83" s="72" t="s">
         <v>117</v>
       </c>
       <c r="K83" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L83" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M83" s="74" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N83" s="78" t="s">
         <v>182</v>
@@ -12274,13 +12271,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D84" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>142</v>
@@ -12288,46 +12285,46 @@
       <c r="F84" s="91"/>
       <c r="G84" s="91"/>
       <c r="H84" s="91" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I84" s="91" t="s">
+        <v>533</v>
+      </c>
+      <c r="J84" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K84" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="L84" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="M84" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="N84" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="O84" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="P84" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="J84" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="K84" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="L84" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="M84" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="N84" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="O84" s="91" t="s">
-        <v>577</v>
-      </c>
-      <c r="P84" s="91" t="s">
-        <v>537</v>
-      </c>
       <c r="Q84" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R84" s="91" t="s">
         <v>112</v>
       </c>
       <c r="S84" s="91" t="s">
+        <v>535</v>
+      </c>
+      <c r="T84" s="91" t="s">
         <v>537</v>
       </c>
-      <c r="T84" s="91" t="s">
-        <v>539</v>
-      </c>
       <c r="U84" s="91" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="V84" s="91"/>
       <c r="W84" s="93"/>
@@ -12341,13 +12338,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C85" s="78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D85" s="78" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E85" s="78" t="s">
         <v>142</v>
@@ -12355,13 +12352,13 @@
       <c r="F85" s="96"/>
       <c r="G85" s="96"/>
       <c r="H85" s="78" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I85" s="78" t="s">
         <v>106</v>
       </c>
       <c r="J85" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K85" s="96"/>
       <c r="L85" s="96"/>
@@ -12386,13 +12383,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D86" s="78" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E86" s="78" t="s">
         <v>142</v>
@@ -12400,7 +12397,7 @@
       <c r="F86" s="97"/>
       <c r="G86" s="97"/>
       <c r="H86" s="91" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I86" s="91" t="s">
         <v>106</v>
@@ -12429,13 +12426,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C87" s="78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D87" s="78" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E87" s="78" t="s">
         <v>142</v>
@@ -12443,7 +12440,7 @@
       <c r="F87" s="97"/>
       <c r="G87" s="97"/>
       <c r="H87" s="91" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I87" s="91" t="s">
         <v>106</v>
@@ -12472,67 +12469,67 @@
         <v>87</v>
       </c>
       <c r="B88" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E88" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="91" t="s">
+        <v>630</v>
+      </c>
+      <c r="I88" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="J88" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O88" s="91" t="s">
+        <v>628</v>
+      </c>
+      <c r="P88" s="72" t="s">
         <v>629</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H88" s="91" t="s">
-        <v>632</v>
-      </c>
-      <c r="I88" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="J88" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O88" s="91" t="s">
-        <v>630</v>
-      </c>
-      <c r="P88" s="72" t="s">
-        <v>631</v>
       </c>
       <c r="Q88" s="91" t="s">
         <v>113</v>
       </c>
       <c r="R88" s="91" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S88" s="72" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T88" s="91" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="U88" s="72" t="s">
         <v>113</v>
       </c>
       <c r="V88" s="91" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="W88" s="93" t="s">
         <v>125</v>
@@ -12546,17 +12543,17 @@
       <c r="A89" s="70">
         <v>88</v>
       </c>
-      <c r="B89" s="99" t="s">
-        <v>220</v>
+      <c r="B89" s="63" t="s">
+        <v>218</v>
       </c>
       <c r="C89" s="78" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D89" s="78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E89" s="78" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F89" s="96"/>
       <c r="G89" s="96"/>
@@ -12573,13 +12570,13 @@
       <c r="R89" s="78"/>
       <c r="S89" s="78"/>
       <c r="T89" s="78" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U89" s="78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="V89" s="78" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="W89" s="80" t="s">
         <v>125</v>
@@ -12593,17 +12590,17 @@
       <c r="A90" s="65">
         <v>89</v>
       </c>
-      <c r="B90" s="99" t="s">
-        <v>220</v>
+      <c r="B90" s="63" t="s">
+        <v>218</v>
       </c>
       <c r="C90" s="78" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D90" s="78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E90" s="78" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F90" s="96"/>
       <c r="G90" s="96"/>
@@ -12620,19 +12617,19 @@
       <c r="R90" s="78"/>
       <c r="S90" s="78"/>
       <c r="T90" s="78" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="U90" s="78" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V90" s="78" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="W90" s="80" t="s">
         <v>125</v>
       </c>
       <c r="X90" s="78" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Y90" s="77"/>
       <c r="Z90" s="77"/>
@@ -12642,17 +12639,17 @@
       <c r="A91" s="70">
         <v>90</v>
       </c>
-      <c r="B91" s="99" t="s">
-        <v>220</v>
+      <c r="B91" s="63" t="s">
+        <v>218</v>
       </c>
       <c r="C91" s="78" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D91" s="78" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E91" s="78" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F91" s="96"/>
       <c r="G91" s="96"/>
@@ -12669,19 +12666,19 @@
       <c r="R91" s="78"/>
       <c r="S91" s="78"/>
       <c r="T91" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="U91" s="78" t="s">
         <v>622</v>
       </c>
-      <c r="U91" s="78" t="s">
-        <v>624</v>
-      </c>
       <c r="V91" s="78" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="W91" s="80" t="s">
         <v>125</v>
       </c>
       <c r="X91" s="78" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Y91" s="77"/>
       <c r="Z91" s="77"/>
@@ -12692,65 +12689,65 @@
         <v>91</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F92" s="91"/>
       <c r="G92" s="91"/>
       <c r="H92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T92" s="91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="U92" s="91"/>
       <c r="V92" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W92" s="93"/>
       <c r="X92" s="91" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Y92" s="77"/>
       <c r="Z92" s="77"/>
@@ -12786,22 +12783,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -12841,10 +12838,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>588</v>
+        <v>585</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>586</v>
       </c>
       <c r="K2" s="28">
         <v>44704</v>
@@ -12987,9 +12984,9 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D3" s="102"/>
+        <v>587</v>
+      </c>
+      <c r="D3" s="101"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="K3" s="24">
@@ -13174,7 +13171,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="D4" s="102"/>
+      <c r="D4" s="101"/>
       <c r="K4" s="24" t="e">
         <f t="shared" ref="K4:BC4" si="40">_xlfn.XLOOKUP(K3,$A$15:$A$17,$B$15:$B$17)</f>
         <v>#N/A</v>
@@ -13357,7 +13354,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="D5" s="102"/>
+      <c r="D5" s="101"/>
       <c r="G5" s="4"/>
       <c r="K5" s="24">
         <f t="shared" ref="K5:BC5" si="41">DAY(K2)</f>
@@ -13541,157 +13538,157 @@
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="D6" s="102"/>
+      <c r="D6" s="101"/>
       <c r="K6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="P6" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="Q6" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="R6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE6" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="AG6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH6" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="AL6" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="AM6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="AN6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="AO6" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP6" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="AQ6" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="AR6" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="AS6" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="AT6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="AU6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="AV6" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="AW6" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="AX6" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY6" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="AZ6" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA6" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="BB6" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="BC6" s="24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="101"/>
+      <c r="AH7" s="34"/>
+    </row>
+    <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="101"/>
+      <c r="F8" s="31" t="s">
         <v>595</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="G8" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="R6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB6" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE6" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="AG6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="AH6" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="AI6" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="AJ6" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="AK6" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="AL6" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="AN6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="AO6" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="AP6" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="AQ6" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="AR6" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="AS6" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="AT6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="AU6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="AV6" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="AW6" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="AX6" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="AY6" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="AZ6" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="BA6" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="BB6" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="BC6" s="24" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="102"/>
-      <c r="AH7" s="34"/>
-    </row>
-    <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="102"/>
-      <c r="F8" s="31" t="s">
+      <c r="I8" s="35" t="s">
         <v>597</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>599</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="37"/>
@@ -13741,7 +13738,7 @@
       <c r="BD8" s="37"/>
     </row>
     <row r="9" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="102"/>
+      <c r="D9" s="101"/>
       <c r="I9" s="34"/>
       <c r="N9" s="43"/>
       <c r="S9" s="44"/>
@@ -13764,15 +13761,15 @@
       <c r="BD9" s="43"/>
     </row>
     <row r="10" spans="1:56" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="102"/>
+      <c r="D10" s="101"/>
       <c r="F10" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>600</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>602</v>
       </c>
       <c r="K10" s="47"/>
       <c r="L10" s="59"/>
@@ -13822,7 +13819,7 @@
       <c r="BD10" s="49"/>
     </row>
     <row r="11" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="G11" s="4"/>
       <c r="I11" s="34"/>
       <c r="AB11" s="2"/>
@@ -13837,10 +13834,10 @@
       <c r="BC11" s="24"/>
     </row>
     <row r="12" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="102"/>
+      <c r="D12" s="101"/>
       <c r="G12" s="4"/>
       <c r="I12" s="46" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K12" s="47"/>
       <c r="L12" s="59"/>
@@ -13890,15 +13887,15 @@
       <c r="BD12" s="49"/>
     </row>
     <row r="13" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="102"/>
+      <c r="D13" s="101"/>
       <c r="G13" s="4"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="102"/>
+      <c r="D14" s="101"/>
       <c r="G14" s="4"/>
       <c r="I14" s="54" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
@@ -13952,7 +13949,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
@@ -13960,7 +13957,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13968,7 +13965,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -13983,12 +13980,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004309D8389C5A084A8EB9FED342634609" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1ee2663b349001e41875756695405cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8508775-6f2a-451e-b0c0-0da0ba3b654b" xmlns:ns3="f15e5eab-f649-4efd-a2c2-4935b72130ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6561bc30f91fc8f80cc55469271a584" ns2:_="" ns3:_="">
     <xsd:import namespace="e8508775-6f2a-451e-b0c0-0da0ba3b654b"/>
@@ -14153,6 +14144,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14163,15 +14160,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA6218BD-C386-4EBA-AE3F-6A1B03CAFB13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14190,6 +14178,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91500E67-CFBD-4E57-93CA-25297AD67667}">
   <ds:schemaRefs>

--- a/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
+++ b/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\justice\dems\jpss-jade-ccm\mapping\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\jade\jpss-jade-ccm\mapping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20B9FD-8D14-45D4-85F8-66CF3CB60892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB6349-F516-48F9-B671-5BF783EBB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="750" windowWidth="19620" windowHeight="19485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Change Log" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="647">
   <si>
     <t>Change Date</t>
   </si>
@@ -3390,6 +3390,12 @@
   </si>
   <si>
     <t>CRN_DECISION_AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>JADE-CCM 5.2.2</t>
   </si>
 </sst>
 </file>
@@ -5617,9 +5623,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A292DBCF-B35F-4E38-91EC-93A3024A386F}" name="Table2" displayName="Table2" ref="A1:X92" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24" headerRowCellStyle="Good">
   <autoFilter ref="A1:X92" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="JADE-CCM 5.2.2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="24">
@@ -6498,10 +6504,10 @@
   <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,7 +6615,7 @@
       <c r="Z1" s="77"/>
       <c r="AB1" s="77"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
         <v>1</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>641</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>109</v>
@@ -6679,7 +6685,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65">
         <v>2</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>641</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>122</v>
@@ -6841,7 +6847,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>5</v>
       </c>
@@ -6861,7 +6867,7 @@
         <v>641</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>138</v>
@@ -6915,7 +6921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <v>6</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>641</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>106</v>
@@ -6989,7 +6995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>7</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>641</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>152</v>
@@ -7061,7 +7067,7 @@
       </c>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>8</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>641</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>157</v>
@@ -7136,7 +7142,7 @@
       <c r="Z9" s="77"/>
       <c r="AB9" s="77"/>
     </row>
-    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>9</v>
       </c>
@@ -7156,7 +7162,7 @@
         <v>641</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>164</v>
@@ -7211,7 +7217,7 @@
       <c r="Z10" s="77"/>
       <c r="AB10" s="77"/>
     </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>10</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>641</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>170</v>
@@ -7286,7 +7292,7 @@
       <c r="Z11" s="77"/>
       <c r="AB11" s="77"/>
     </row>
-    <row r="12" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>11</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>641</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>176</v>
@@ -7361,7 +7367,7 @@
       <c r="Z12" s="77"/>
       <c r="AB12" s="77"/>
     </row>
-    <row r="13" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>12</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>641</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>185</v>
@@ -7436,7 +7442,7 @@
       <c r="Z13" s="77"/>
       <c r="AB13" s="77"/>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <v>13</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>641</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>192</v>
@@ -7508,7 +7514,7 @@
       </c>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>14</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>641</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>196</v>
@@ -7576,7 +7582,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>15</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>641</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>198</v>
@@ -7647,7 +7653,7 @@
       <c r="Z16" s="77"/>
       <c r="AB16" s="77"/>
     </row>
-    <row r="17" spans="1:24" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>16</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>641</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>204</v>
@@ -7719,7 +7725,7 @@
       </c>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>17</v>
       </c>
@@ -7739,7 +7745,7 @@
         <v>641</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>106</v>
@@ -7791,7 +7797,7 @@
       </c>
       <c r="X18" s="66"/>
     </row>
-    <row r="19" spans="1:24" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>18</v>
       </c>
@@ -7811,7 +7817,7 @@
         <v>641</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>215</v>
@@ -7863,7 +7869,7 @@
       </c>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="2" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>19</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>641</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>224</v>
@@ -7937,7 +7943,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="2" customFormat="1" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>20</v>
       </c>
@@ -7957,7 +7963,7 @@
         <v>641</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>232</v>
@@ -8011,7 +8017,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>21</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>641</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>243</v>
@@ -8081,7 +8087,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>22</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>641</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>252</v>
@@ -8155,7 +8161,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>23</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>261</v>
@@ -8229,7 +8235,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>24</v>
       </c>
@@ -8249,7 +8255,7 @@
         <v>641</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>270</v>
@@ -8303,7 +8309,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>25</v>
       </c>
@@ -8323,7 +8329,7 @@
         <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>277</v>
@@ -8377,7 +8383,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="2" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>26</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>641</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>283</v>
@@ -8447,7 +8453,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="2" customFormat="1" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>27</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>641</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>289</v>
@@ -8521,7 +8527,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>28</v>
       </c>
@@ -8537,7 +8543,9 @@
       <c r="E29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>298</v>
@@ -8585,7 +8593,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>29</v>
       </c>
@@ -8601,7 +8609,9 @@
       <c r="E30" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>307</v>
@@ -8653,7 +8663,7 @@
       </c>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>30</v>
       </c>
@@ -8669,7 +8679,9 @@
       <c r="E31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
         <v>313</v>
@@ -8723,7 +8735,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>31</v>
       </c>
@@ -8739,7 +8751,9 @@
       <c r="E32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
         <v>321</v>
@@ -8789,7 +8803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="9" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>32</v>
       </c>
@@ -8805,7 +8819,9 @@
       <c r="E33" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="78"/>
+      <c r="F33" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G33" s="78"/>
       <c r="H33" s="78" t="s">
         <v>325</v>
@@ -8860,7 +8876,7 @@
       </c>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>33</v>
       </c>
@@ -8876,7 +8892,9 @@
       <c r="E34" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
         <v>336</v>
@@ -8930,7 +8948,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>34</v>
       </c>
@@ -8946,7 +8964,9 @@
       <c r="E35" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
         <v>345</v>
@@ -9000,7 +9020,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>35</v>
       </c>
@@ -9016,7 +9036,9 @@
       <c r="E36" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
         <v>354</v>
@@ -9068,7 +9090,7 @@
       </c>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:25" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="65">
         <v>36</v>
       </c>
@@ -9084,7 +9106,9 @@
       <c r="E37" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G37" s="13"/>
       <c r="H37" s="7" t="s">
         <v>363</v>
@@ -9136,7 +9160,7 @@
       </c>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:25" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>37</v>
       </c>
@@ -9152,7 +9176,9 @@
       <c r="E38" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
         <v>371</v>
@@ -9342,7 +9368,7 @@
       </c>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:25" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>40</v>
       </c>
@@ -9358,7 +9384,9 @@
       <c r="E41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="78"/>
+      <c r="F41" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G41" s="78"/>
       <c r="H41" s="78" t="s">
         <v>397</v>
@@ -9408,7 +9436,7 @@
       <c r="W41" s="20"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>41</v>
       </c>
@@ -9424,7 +9452,9 @@
       <c r="E42" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
         <v>401</v>
@@ -9476,7 +9506,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>42</v>
       </c>
@@ -9492,7 +9522,9 @@
       <c r="E43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
         <v>405</v>
@@ -9544,7 +9576,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>43</v>
       </c>
@@ -9560,7 +9592,9 @@
       <c r="E44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
         <v>411</v>
@@ -9612,7 +9646,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>44</v>
       </c>
@@ -9628,7 +9662,9 @@
       <c r="E45" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
         <v>415</v>
@@ -9682,7 +9718,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>45</v>
       </c>
@@ -9698,7 +9734,9 @@
       <c r="E46" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="78"/>
+      <c r="F46" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G46" s="78"/>
       <c r="H46" s="78" t="s">
         <v>419</v>
@@ -9748,7 +9786,7 @@
       </c>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:25" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="2" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>46</v>
       </c>
@@ -9764,7 +9802,9 @@
       <c r="E47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="78" t="s">
         <v>423</v>
@@ -9816,7 +9856,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>47</v>
       </c>
@@ -9832,7 +9872,9 @@
       <c r="E48" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="78" t="s">
         <v>428</v>
@@ -9884,7 +9926,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>48</v>
       </c>
@@ -9900,7 +9942,9 @@
       <c r="E49" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>435</v>
@@ -9948,7 +9992,7 @@
       </c>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>49</v>
       </c>
@@ -9964,7 +10008,9 @@
       <c r="E50" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="78"/>
+      <c r="F50" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G50" s="78"/>
       <c r="H50" s="78" t="s">
         <v>440</v>
@@ -10012,7 +10058,7 @@
       </c>
       <c r="X50" s="78"/>
     </row>
-    <row r="51" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>50</v>
       </c>
@@ -10028,7 +10074,9 @@
       <c r="E51" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>443</v>
@@ -10076,7 +10124,7 @@
       </c>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>51</v>
       </c>
@@ -10092,7 +10140,9 @@
       <c r="E52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>448</v>
@@ -10142,7 +10192,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="65">
         <v>52</v>
       </c>
@@ -10158,7 +10208,9 @@
       <c r="E53" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>453</v>
@@ -10208,7 +10260,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
         <v>53</v>
       </c>
@@ -10224,7 +10276,9 @@
       <c r="E54" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>458</v>
@@ -10278,7 +10332,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="65">
         <v>54</v>
       </c>
@@ -10294,7 +10348,9 @@
       <c r="E55" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>464</v>
@@ -10348,7 +10404,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="65">
         <v>55</v>
       </c>
@@ -10364,7 +10420,9 @@
       <c r="E56" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
         <v>469</v>
@@ -10418,7 +10476,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="65">
         <v>56</v>
       </c>
@@ -10434,7 +10492,9 @@
       <c r="E57" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>473</v>
@@ -10488,7 +10548,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
         <v>57</v>
       </c>
@@ -10504,7 +10564,9 @@
       <c r="E58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
         <v>478</v>
@@ -10556,7 +10618,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="65">
         <v>58</v>
       </c>
@@ -10572,7 +10634,9 @@
       <c r="E59" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
         <v>484</v>
@@ -10622,7 +10686,7 @@
       </c>
       <c r="X59" s="7"/>
     </row>
-    <row r="60" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
         <v>59</v>
       </c>
@@ -10642,7 +10706,7 @@
         <v>641</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>488</v>
@@ -10692,7 +10756,7 @@
       </c>
       <c r="X60" s="7"/>
     </row>
-    <row r="61" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="65">
         <v>60</v>
       </c>
@@ -10712,7 +10776,7 @@
         <v>641</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>161</v>
@@ -10762,7 +10826,7 @@
       </c>
       <c r="X61" s="7"/>
     </row>
-    <row r="62" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65">
         <v>61</v>
       </c>
@@ -10782,7 +10846,7 @@
         <v>641</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>493</v>
@@ -10830,7 +10894,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="65">
         <v>62</v>
       </c>
@@ -10846,7 +10910,9 @@
       <c r="E63" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F63" s="92"/>
+      <c r="F63" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G63" s="92"/>
       <c r="H63" s="7" t="s">
         <v>499</v>
@@ -10898,7 +10964,7 @@
       </c>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="65">
         <v>63</v>
       </c>
@@ -10914,7 +10980,9 @@
       <c r="E64" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
         <v>502</v>
@@ -10964,7 +11032,7 @@
       </c>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65">
         <v>64</v>
       </c>
@@ -10984,7 +11052,7 @@
         <v>642</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>109</v>
@@ -11032,7 +11100,7 @@
       <c r="W65" s="9"/>
       <c r="X65" s="7"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65">
         <v>65</v>
       </c>
@@ -11052,7 +11120,7 @@
         <v>642</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>511</v>
@@ -11100,7 +11168,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="7"/>
     </row>
-    <row r="67" spans="1:28" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65">
         <v>66</v>
       </c>
@@ -11120,7 +11188,7 @@
         <v>642</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>518</v>
@@ -11168,7 +11236,7 @@
       <c r="W67" s="9"/>
       <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:28" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65">
         <v>67</v>
       </c>
@@ -11188,7 +11256,7 @@
         <v>642</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>524</v>
@@ -11236,7 +11304,7 @@
       <c r="W68" s="9"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" spans="1:28" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65">
         <v>68</v>
       </c>
@@ -11256,7 +11324,7 @@
         <v>642</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>531</v>
@@ -11304,7 +11372,7 @@
       <c r="W69" s="9"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:28" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="65">
         <v>69</v>
       </c>
@@ -11324,7 +11392,7 @@
         <v>641</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H70" s="78" t="s">
         <v>536</v>
@@ -11374,7 +11442,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
         <v>70</v>
       </c>
@@ -11394,7 +11462,7 @@
         <v>641</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H71" s="72" t="s">
         <v>542</v>
@@ -11442,7 +11510,7 @@
       <c r="W71" s="73"/>
       <c r="X71" s="72"/>
     </row>
-    <row r="72" spans="1:28" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="65">
         <v>71</v>
       </c>
@@ -11462,7 +11530,7 @@
         <v>641</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H72" s="91" t="s">
         <v>544</v>
@@ -11514,7 +11582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="65">
         <v>72</v>
       </c>
@@ -11534,7 +11602,7 @@
         <v>641</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H73" s="72" t="s">
         <v>549</v>
@@ -11582,7 +11650,7 @@
       <c r="W73" s="73"/>
       <c r="X73" s="72"/>
     </row>
-    <row r="74" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>73</v>
       </c>
@@ -11602,7 +11670,7 @@
         <v>641</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H74" s="91" t="s">
         <v>553</v>
@@ -11653,7 +11721,7 @@
       <c r="Z74" s="77"/>
       <c r="AB74" s="77"/>
     </row>
-    <row r="75" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65">
         <v>74</v>
       </c>
@@ -11673,7 +11741,7 @@
         <v>641</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>555</v>
@@ -11728,7 +11796,7 @@
       <c r="Z75" s="77"/>
       <c r="AB75" s="77"/>
     </row>
-    <row r="76" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>75</v>
       </c>
@@ -11744,7 +11812,9 @@
       <c r="E76" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="91"/>
+      <c r="F76" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G76" s="91"/>
       <c r="H76" s="91" t="s">
         <v>559</v>
@@ -11797,7 +11867,7 @@
       <c r="Z76" s="77"/>
       <c r="AB76" s="77"/>
     </row>
-    <row r="77" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
         <v>76</v>
       </c>
@@ -11813,7 +11883,9 @@
       <c r="E77" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="F77" s="91"/>
+      <c r="F77" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G77" s="91"/>
       <c r="H77" s="91" t="s">
         <v>564</v>
@@ -11864,7 +11936,7 @@
       <c r="Z77" s="77"/>
       <c r="AB77" s="77"/>
     </row>
-    <row r="78" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>77</v>
       </c>
@@ -11880,7 +11952,9 @@
       <c r="E78" s="91" t="s">
         <v>627</v>
       </c>
-      <c r="F78" s="91"/>
+      <c r="F78" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G78" s="91"/>
       <c r="H78" s="91" t="s">
         <v>567</v>
@@ -11931,7 +12005,7 @@
       <c r="Z78" s="77"/>
       <c r="AB78" s="77"/>
     </row>
-    <row r="79" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="65">
         <v>78</v>
       </c>
@@ -11951,7 +12025,7 @@
         <v>641</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>574</v>
@@ -12000,7 +12074,7 @@
       <c r="Z79" s="77"/>
       <c r="AB79" s="77"/>
     </row>
-    <row r="80" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>79</v>
       </c>
@@ -12016,7 +12090,9 @@
       <c r="E80" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F80" s="78"/>
+      <c r="F80" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G80" s="78"/>
       <c r="H80" s="7" t="s">
         <v>574</v>
@@ -12065,7 +12141,7 @@
       <c r="Z80" s="77"/>
       <c r="AB80" s="77"/>
     </row>
-    <row r="81" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <v>80</v>
       </c>
@@ -12081,7 +12157,9 @@
       <c r="E81" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
         <v>192</v>
@@ -12132,7 +12210,7 @@
       <c r="Z81" s="77"/>
       <c r="AB81" s="77"/>
     </row>
-    <row r="82" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="65">
         <v>81</v>
       </c>
@@ -12148,7 +12226,9 @@
       <c r="E82" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
         <v>185</v>
@@ -12199,7 +12279,7 @@
       <c r="Z82" s="77"/>
       <c r="AB82" s="77"/>
     </row>
-    <row r="83" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <v>82</v>
       </c>
@@ -12215,7 +12295,9 @@
       <c r="E83" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="78"/>
+      <c r="F83" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G83" s="78"/>
       <c r="H83" s="7" t="s">
         <v>555</v>
@@ -12266,7 +12348,7 @@
       <c r="Z83" s="77"/>
       <c r="AB83" s="77"/>
     </row>
-    <row r="84" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>83</v>
       </c>
@@ -12282,7 +12364,9 @@
       <c r="E84" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="91"/>
+      <c r="F84" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G84" s="91"/>
       <c r="H84" s="91" t="s">
         <v>536</v>
@@ -12333,7 +12417,7 @@
       <c r="Z84" s="77"/>
       <c r="AB84" s="77"/>
     </row>
-    <row r="85" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <v>84</v>
       </c>
@@ -12349,7 +12433,9 @@
       <c r="E85" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F85" s="96"/>
+      <c r="F85" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G85" s="96"/>
       <c r="H85" s="78" t="s">
         <v>578</v>
@@ -12378,7 +12464,7 @@
       <c r="Z85" s="77"/>
       <c r="AB85" s="77"/>
     </row>
-    <row r="86" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="65">
         <v>85</v>
       </c>
@@ -12394,7 +12480,9 @@
       <c r="E86" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F86" s="97"/>
+      <c r="F86" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G86" s="97"/>
       <c r="H86" s="91" t="s">
         <v>579</v>
@@ -12421,7 +12509,7 @@
       <c r="Z86" s="77"/>
       <c r="AB86" s="77"/>
     </row>
-    <row r="87" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <v>86</v>
       </c>
@@ -12437,7 +12525,9 @@
       <c r="E87" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F87" s="97"/>
+      <c r="F87" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G87" s="97"/>
       <c r="H87" s="91" t="s">
         <v>580</v>
@@ -12464,7 +12554,7 @@
       <c r="Z87" s="77"/>
       <c r="AB87" s="77"/>
     </row>
-    <row r="88" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <v>87</v>
       </c>
@@ -12484,7 +12574,7 @@
         <v>641</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="H88" s="91" t="s">
         <v>630</v>
@@ -13980,6 +14070,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004309D8389C5A084A8EB9FED342634609" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1ee2663b349001e41875756695405cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8508775-6f2a-451e-b0c0-0da0ba3b654b" xmlns:ns3="f15e5eab-f649-4efd-a2c2-4935b72130ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6561bc30f91fc8f80cc55469271a584" ns2:_="" ns3:_="">
     <xsd:import namespace="e8508775-6f2a-451e-b0c0-0da0ba3b654b"/>
@@ -14144,12 +14240,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14160,6 +14250,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA6218BD-C386-4EBA-AE3F-6A1B03CAFB13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14178,15 +14277,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91500E67-CFBD-4E57-93CA-25297AD67667}">
   <ds:schemaRefs>

--- a/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
+++ b/mapping/docs/DEMS Integration Data Mapping v1.13 Daniel Conti Aug 2 - mapping status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\jade\jpss-jade-ccm\mapping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB6349-F516-48F9-B671-5BF783EBB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED7361-25AD-4DC3-B99A-5B808FCF3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Change Log" sheetId="3" r:id="rId1"/>
@@ -5627,6 +5627,20 @@
         <filter val="JADE-CCM 5.2.2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="getCourtFile"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Class"/>
+        <filter val="Court File Level"/>
+        <filter val="Crown Election"/>
+        <filter val="Designation"/>
+        <filter val="Sworn Date"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{835DEB9C-EF50-49F3-AADC-8EEC259AD441}" name="#" dataDxfId="23"/>
@@ -6504,10 +6518,10 @@
   <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8527,7 +8541,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>28</v>
       </c>
@@ -8593,7 +8607,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>29</v>
       </c>
@@ -8663,7 +8677,7 @@
       </c>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>30</v>
       </c>
@@ -8735,7 +8749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="2" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>31</v>
       </c>
@@ -8876,7 +8890,7 @@
       </c>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>33</v>
       </c>
@@ -9368,7 +9382,7 @@
       </c>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:25" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="2" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>40</v>
       </c>
@@ -9436,7 +9450,7 @@
       <c r="W41" s="20"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:25" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>41</v>
       </c>
@@ -9506,7 +9520,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>42</v>
       </c>
@@ -9576,7 +9590,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>43</v>
       </c>
@@ -9646,7 +9660,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>44</v>
       </c>
@@ -9718,7 +9732,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="2" customFormat="1" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>45</v>
       </c>
@@ -9786,7 +9800,7 @@
       </c>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:25" s="2" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="2" customFormat="1" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>46</v>
       </c>
@@ -9856,7 +9870,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>47</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>48</v>
       </c>
@@ -9992,7 +10006,7 @@
       </c>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>49</v>
       </c>
@@ -10058,7 +10072,7 @@
       </c>
       <c r="X50" s="78"/>
     </row>
-    <row r="51" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>50</v>
       </c>
@@ -10124,7 +10138,7 @@
       </c>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>51</v>
       </c>
@@ -10192,7 +10206,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65">
         <v>52</v>
       </c>
@@ -10260,7 +10274,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" s="2" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
         <v>53</v>
       </c>
@@ -10332,7 +10346,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="65">
         <v>54</v>
       </c>
@@ -10404,7 +10418,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="2" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65">
         <v>55</v>
       </c>
@@ -10476,7 +10490,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="2" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="65">
         <v>56</v>
       </c>
@@ -10548,7 +10562,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="2" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
         <v>57</v>
       </c>
@@ -10618,7 +10632,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65">
         <v>58</v>
       </c>
@@ -10894,7 +10908,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65">
         <v>62</v>
       </c>
@@ -10964,7 +10978,7 @@
       </c>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" spans="1:24" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="65">
         <v>63</v>
       </c>
@@ -11796,7 +11810,7 @@
       <c r="Z75" s="77"/>
       <c r="AB75" s="77"/>
     </row>
-    <row r="76" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>75</v>
       </c>
@@ -11867,7 +11881,7 @@
       <c r="Z76" s="77"/>
       <c r="AB76" s="77"/>
     </row>
-    <row r="77" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
         <v>76</v>
       </c>
@@ -11936,7 +11950,7 @@
       <c r="Z77" s="77"/>
       <c r="AB77" s="77"/>
     </row>
-    <row r="78" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>77</v>
       </c>
@@ -12074,7 +12088,7 @@
       <c r="Z79" s="77"/>
       <c r="AB79" s="77"/>
     </row>
-    <row r="80" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>79</v>
       </c>
@@ -12141,7 +12155,7 @@
       <c r="Z80" s="77"/>
       <c r="AB80" s="77"/>
     </row>
-    <row r="81" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <v>80</v>
       </c>
@@ -12210,7 +12224,7 @@
       <c r="Z81" s="77"/>
       <c r="AB81" s="77"/>
     </row>
-    <row r="82" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="65">
         <v>81</v>
       </c>
@@ -12279,7 +12293,7 @@
       <c r="Z82" s="77"/>
       <c r="AB82" s="77"/>
     </row>
-    <row r="83" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <v>82</v>
       </c>
@@ -12348,7 +12362,7 @@
       <c r="Z83" s="77"/>
       <c r="AB83" s="77"/>
     </row>
-    <row r="84" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>83</v>
       </c>
@@ -12417,7 +12431,7 @@
       <c r="Z84" s="77"/>
       <c r="AB84" s="77"/>
     </row>
-    <row r="85" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <v>84</v>
       </c>
@@ -12464,7 +12478,7 @@
       <c r="Z85" s="77"/>
       <c r="AB85" s="77"/>
     </row>
-    <row r="86" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="65">
         <v>85</v>
       </c>
@@ -12509,7 +12523,7 @@
       <c r="Z86" s="77"/>
       <c r="AB86" s="77"/>
     </row>
-    <row r="87" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <v>86</v>
       </c>
@@ -14070,12 +14084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004309D8389C5A084A8EB9FED342634609" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1ee2663b349001e41875756695405cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8508775-6f2a-451e-b0c0-0da0ba3b654b" xmlns:ns3="f15e5eab-f649-4efd-a2c2-4935b72130ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6561bc30f91fc8f80cc55469271a584" ns2:_="" ns3:_="">
     <xsd:import namespace="e8508775-6f2a-451e-b0c0-0da0ba3b654b"/>
@@ -14240,6 +14248,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14250,15 +14264,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA6218BD-C386-4EBA-AE3F-6A1B03CAFB13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14277,6 +14282,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6ECE83-F240-478D-BE60-3B98A1630AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91500E67-CFBD-4E57-93CA-25297AD67667}">
   <ds:schemaRefs>
